--- a/assets/uploads/template_dosen.xlsx
+++ b/assets/uploads/template_dosen.xlsx
@@ -10,16 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -27,52 +22,107 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>Agung Hardiyanto</t>
-  </si>
-  <si>
-    <t>Jution Candra Kirana</t>
-  </si>
-  <si>
     <t>JURUSAN ID</t>
   </si>
   <si>
     <t>NIP</t>
   </si>
   <si>
-    <t>123456789101112133</t>
-  </si>
-  <si>
-    <t>dosen@gmail.com</t>
-  </si>
-  <si>
-    <t>adb115d5-baac-11eb-a91e-0cc47abcfaa6</t>
-  </si>
-  <si>
-    <t>123456789101112134</t>
-  </si>
-  <si>
-    <t>dosen2@gmail.com</t>
-  </si>
-  <si>
-    <t>Jonatan Teofilus</t>
-  </si>
-  <si>
-    <t>123456789101112135</t>
-  </si>
-  <si>
-    <t>dosen3@gmail.com</t>
+    <t>cbe45c04-f283-11eb-ad91-005056a72911</t>
+  </si>
+  <si>
+    <t>PRODI_ID</t>
+  </si>
+  <si>
+    <t>Arif Maksun</t>
+  </si>
+  <si>
+    <t>Iskandar Zulkarnain</t>
+  </si>
+  <si>
+    <t>Rahmawati</t>
+  </si>
+  <si>
+    <t>Bambang Utoyo</t>
+  </si>
+  <si>
+    <t>Herry Sutrisna</t>
+  </si>
+  <si>
+    <t>1981100420050110011</t>
+  </si>
+  <si>
+    <t>1981100420050110012</t>
+  </si>
+  <si>
+    <t>1981100420050110013</t>
+  </si>
+  <si>
+    <t>1981100420050110014</t>
+  </si>
+  <si>
+    <t>1981100420050110015</t>
+  </si>
+  <si>
+    <t>email1@gmail.com</t>
+  </si>
+  <si>
+    <t>email5@gmail.com</t>
+  </si>
+  <si>
+    <t>email4@gmail.com</t>
+  </si>
+  <si>
+    <t>email3@gmail.com</t>
+  </si>
+  <si>
+    <t>email2@gmail.com</t>
+  </si>
+  <si>
+    <t>ff0276ac-f284-11eb-ad91-005056a72911</t>
+  </si>
+  <si>
+    <t>e5d38934-f283-11eb-ad91-005056a72911</t>
+  </si>
+  <si>
+    <t>d51f219c-f283-11eb-ad91-005056a72911</t>
+  </si>
+  <si>
+    <t>1419fb84-f284-11eb-ad91-005056a72911</t>
+  </si>
+  <si>
+    <t>212d4c5e-f284-11eb-ad91-005056a72911</t>
+  </si>
+  <si>
+    <t>d9535033-f284-11eb-ad91-005056a72911</t>
+  </si>
+  <si>
+    <t>ec6543c8-f284-11eb-ad91-005056a72911</t>
+  </si>
+  <si>
+    <t>b2864fc1-f284-11eb-ad91-005056a72911</t>
+  </si>
+  <si>
+    <t>47c57c56-f284-11eb-ad91-005056a72911</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -82,16 +132,309 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -99,20 +442,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="43">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="108"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="108" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="65535" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="108" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="108" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="65535" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="65535" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="65535" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="65535" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="65535" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="65535" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="65535" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="65535" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="65535" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="65535" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="65535" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="65535" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="65535" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2 2" xfId="65535" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3 2" xfId="65535" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4 2" xfId="65535" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5 2" xfId="65535" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6 2" xfId="65535" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="65535" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="65535" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="65535" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="65535" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="65535" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="65535" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="97" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="101" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="103" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="106" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="96" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="92" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="93" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="94" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="95" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8"/>
+    <cellStyle name="Input" xfId="99" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="102" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="65535" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="66" builtinId="0"/>
+    <cellStyle name="Note 2" xfId="65535" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="100" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="65535" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="107" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="104" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,7 +951,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,90 +959,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="65535" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="65535" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="65535" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" style="65535" customWidth="1"/>
+    <col min="5" max="5" width="35.453125" style="65535" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="65535" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="65535" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="65535">
+      <c r="A1" s="65535" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="65535" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="65535" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="65535" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="65535" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7" s="65535">
+      <c r="A2" s="65535" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="65535" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="65535" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="65535" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="65535" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="65535"/>
+      <c r="G2" s="65535"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:7" s="65535" ht="25">
+      <c r="A3" s="65535" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="65535" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="65535" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="65535" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="65535" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="65535"/>
+      <c r="G3" s="65535"/>
+    </row>
+    <row r="4" spans="1:7" s="65535" ht="25">
+      <c r="A4" s="65535" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B4" s="65535" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="65535" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="65535" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="65535" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="65535"/>
+      <c r="G4" s="65535"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="1:7" s="65535" ht="25">
+      <c r="A5" s="65535" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="65535" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="65535" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="65535" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="65535" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="65535" ht="25">
+      <c r="A6" s="65535" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B6" s="65535" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="65535" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="65535" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="65535" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C3:C6" r:id="rId2" display="email1@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
